--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H2">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I2">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J2">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N2">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q2">
-        <v>11.72023873449432</v>
+        <v>71.98607101383611</v>
       </c>
       <c r="R2">
-        <v>11.72023873449432</v>
+        <v>647.8746391245249</v>
       </c>
       <c r="S2">
-        <v>0.0001922291617176539</v>
+        <v>0.0009755856739547621</v>
       </c>
       <c r="T2">
-        <v>0.0001922291617176539</v>
+        <v>0.0009755856739547625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H3">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I3">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J3">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N3">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P3">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q3">
-        <v>42.00202900867321</v>
+        <v>102.1481348046739</v>
       </c>
       <c r="R3">
-        <v>42.00202900867321</v>
+        <v>919.3332132420649</v>
       </c>
       <c r="S3">
-        <v>0.0006888950822319743</v>
+        <v>0.001384354716587958</v>
       </c>
       <c r="T3">
-        <v>0.0006888950822319743</v>
+        <v>0.001384354716587958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H4">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I4">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J4">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N4">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q4">
-        <v>225.1923638562988</v>
+        <v>735.6133484914566</v>
       </c>
       <c r="R4">
-        <v>225.1923638562988</v>
+        <v>6620.520136423109</v>
       </c>
       <c r="S4">
-        <v>0.003693486140509146</v>
+        <v>0.009969343155569917</v>
       </c>
       <c r="T4">
-        <v>0.003693486140509146</v>
+        <v>0.009969343155569918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H5">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I5">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J5">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N5">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q5">
-        <v>289.4622797508572</v>
+        <v>698.1059688793187</v>
       </c>
       <c r="R5">
-        <v>289.4622797508572</v>
+        <v>6282.953719913869</v>
       </c>
       <c r="S5">
-        <v>0.004747607335132418</v>
+        <v>0.009461027286932615</v>
       </c>
       <c r="T5">
-        <v>0.004747607335132418</v>
+        <v>0.009461027286932619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H6">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I6">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J6">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N6">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q6">
-        <v>421.2612501500587</v>
+        <v>1067.718591139272</v>
       </c>
       <c r="R6">
-        <v>421.2612501500587</v>
+        <v>9609.467320253445</v>
       </c>
       <c r="S6">
-        <v>0.006909304393445923</v>
+        <v>0.01447017383585811</v>
       </c>
       <c r="T6">
-        <v>0.006909304393445923</v>
+        <v>0.01447017383585812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H7">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I7">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J7">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N7">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q7">
-        <v>33.65103728542383</v>
+        <v>85.80814560423777</v>
       </c>
       <c r="R7">
-        <v>33.65103728542383</v>
+        <v>772.2733104381399</v>
       </c>
       <c r="S7">
-        <v>0.0005519265293861472</v>
+        <v>0.001162908273519033</v>
       </c>
       <c r="T7">
-        <v>0.0005519265293861472</v>
+        <v>0.001162908273519033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H8">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N8">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q8">
-        <v>273.8160465953419</v>
+        <v>715.1663403873106</v>
       </c>
       <c r="R8">
-        <v>273.8160465953419</v>
+        <v>6436.497063485795</v>
       </c>
       <c r="S8">
-        <v>0.004490986087762115</v>
+        <v>0.009692236655649847</v>
       </c>
       <c r="T8">
-        <v>0.004490986087762115</v>
+        <v>0.009692236655649849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H9">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N9">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P9">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q9">
-        <v>981.279459631586</v>
+        <v>1014.820043888867</v>
       </c>
       <c r="R9">
-        <v>981.279459631586</v>
+        <v>9133.380394999806</v>
       </c>
       <c r="S9">
-        <v>0.01609442710245875</v>
+        <v>0.01375327035517511</v>
       </c>
       <c r="T9">
-        <v>0.01609442710245875</v>
+        <v>0.01375327035517511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H10">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N10">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q10">
-        <v>5261.094435995883</v>
+        <v>7308.162523268895</v>
       </c>
       <c r="R10">
-        <v>5261.094435995883</v>
+        <v>65773.46270942004</v>
       </c>
       <c r="S10">
-        <v>0.08628969051393107</v>
+        <v>0.09904330879877923</v>
       </c>
       <c r="T10">
-        <v>0.08628969051393107</v>
+        <v>0.09904330879877923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H11">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N11">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q11">
-        <v>6762.611144309114</v>
+        <v>6935.534665727197</v>
       </c>
       <c r="R11">
-        <v>6762.611144309114</v>
+        <v>62419.81199154478</v>
       </c>
       <c r="S11">
-        <v>0.1109167740301233</v>
+        <v>0.09399329850631219</v>
       </c>
       <c r="T11">
-        <v>0.1109167740301233</v>
+        <v>0.0939932985063122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H12">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N12">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q12">
-        <v>9841.786734293622</v>
+        <v>10607.55763766855</v>
       </c>
       <c r="R12">
-        <v>9841.786734293622</v>
+        <v>95468.01873901696</v>
       </c>
       <c r="S12">
-        <v>0.1614197847497017</v>
+        <v>0.1437581065504993</v>
       </c>
       <c r="T12">
-        <v>0.1614197847497017</v>
+        <v>0.1437581065504993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H13">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N13">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q13">
-        <v>786.1780124161231</v>
+        <v>852.4857184580768</v>
       </c>
       <c r="R13">
-        <v>786.1780124161231</v>
+        <v>7672.37146612269</v>
       </c>
       <c r="S13">
-        <v>0.01289447627400426</v>
+        <v>0.01155324693326964</v>
       </c>
       <c r="T13">
-        <v>0.01289447627400426</v>
+        <v>0.01155324693326964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H14">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I14">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J14">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N14">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q14">
-        <v>134.342349095667</v>
+        <v>387.68034036023</v>
       </c>
       <c r="R14">
-        <v>134.342349095667</v>
+        <v>3489.12306324207</v>
       </c>
       <c r="S14">
-        <v>0.002203412211547815</v>
+        <v>0.005254007904621598</v>
       </c>
       <c r="T14">
-        <v>0.002203412211547815</v>
+        <v>0.005254007904621599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H15">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I15">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J15">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N15">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P15">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q15">
-        <v>481.445077326146</v>
+        <v>550.117864616158</v>
       </c>
       <c r="R15">
-        <v>481.445077326146</v>
+        <v>4951.060781545421</v>
       </c>
       <c r="S15">
-        <v>0.007896407720357684</v>
+        <v>0.007455429920643329</v>
       </c>
       <c r="T15">
-        <v>0.007896407720357684</v>
+        <v>0.007455429920643328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H16">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I16">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J16">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N16">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q16">
-        <v>2581.250420251499</v>
+        <v>3961.639096289652</v>
       </c>
       <c r="R16">
-        <v>2581.250420251499</v>
+        <v>35654.75186660686</v>
       </c>
       <c r="S16">
-        <v>0.0423363052330944</v>
+        <v>0.05368980822660008</v>
       </c>
       <c r="T16">
-        <v>0.0423363052330944</v>
+        <v>0.05368980822660007</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H17">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I17">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J17">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N17">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q17">
-        <v>3317.939464992912</v>
+        <v>3759.643439501283</v>
       </c>
       <c r="R17">
-        <v>3317.939464992912</v>
+        <v>33836.79095551155</v>
       </c>
       <c r="S17">
-        <v>0.05441908961362359</v>
+        <v>0.05095227767119668</v>
       </c>
       <c r="T17">
-        <v>0.05441908961362359</v>
+        <v>0.05095227767119669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H18">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I18">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J18">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N18">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q18">
-        <v>4828.675184027987</v>
+        <v>5750.188904493174</v>
       </c>
       <c r="R18">
-        <v>4828.675184027987</v>
+        <v>51751.70014043856</v>
       </c>
       <c r="S18">
-        <v>0.07919737847153901</v>
+        <v>0.07792899152224789</v>
       </c>
       <c r="T18">
-        <v>0.07919737847153901</v>
+        <v>0.0779289915222479</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H19">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I19">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J19">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N19">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q19">
-        <v>385.7224669941647</v>
+        <v>462.118999203848</v>
       </c>
       <c r="R19">
-        <v>385.7224669941647</v>
+        <v>4159.070992834631</v>
       </c>
       <c r="S19">
-        <v>0.006326416053943363</v>
+        <v>0.00626283208593136</v>
       </c>
       <c r="T19">
-        <v>0.006326416053943363</v>
+        <v>0.00626283208593136</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H20">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N20">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O20">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P20">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q20">
-        <v>151.2250556402047</v>
+        <v>397.798120522545</v>
       </c>
       <c r="R20">
-        <v>151.2250556402047</v>
+        <v>3580.183084702905</v>
       </c>
       <c r="S20">
-        <v>0.002480313441983515</v>
+        <v>0.005391128339721897</v>
       </c>
       <c r="T20">
-        <v>0.002480313441983515</v>
+        <v>0.005391128339721898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H21">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N21">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O21">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P21">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q21">
-        <v>541.9479344856666</v>
+        <v>564.474980616357</v>
       </c>
       <c r="R21">
-        <v>541.9479344856666</v>
+        <v>5080.274825547212</v>
       </c>
       <c r="S21">
-        <v>0.0088887436084542</v>
+        <v>0.007650003627637405</v>
       </c>
       <c r="T21">
-        <v>0.0088887436084542</v>
+        <v>0.007650003627637404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H22">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N22">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O22">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P22">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q22">
-        <v>2905.634307063228</v>
+        <v>4065.030961405758</v>
       </c>
       <c r="R22">
-        <v>2905.634307063228</v>
+        <v>36585.27865265182</v>
       </c>
       <c r="S22">
-        <v>0.04765667831158898</v>
+        <v>0.0550910185022845</v>
       </c>
       <c r="T22">
-        <v>0.04765667831158898</v>
+        <v>0.0550910185022845</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H23">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N23">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O23">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P23">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q23">
-        <v>3734.902535067905</v>
+        <v>3857.763570571685</v>
       </c>
       <c r="R23">
-        <v>3734.902535067905</v>
+        <v>34719.87213514517</v>
       </c>
       <c r="S23">
-        <v>0.06125789752901487</v>
+        <v>0.05228204317792157</v>
       </c>
       <c r="T23">
-        <v>0.06125789752901487</v>
+        <v>0.05228204317792157</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H24">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N24">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O24">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P24">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q24">
-        <v>5435.491327110194</v>
+        <v>5900.258797574122</v>
       </c>
       <c r="R24">
-        <v>5435.491327110194</v>
+        <v>53102.32917816709</v>
       </c>
       <c r="S24">
-        <v>0.08915005615532388</v>
+        <v>0.07996280217088789</v>
       </c>
       <c r="T24">
-        <v>0.08915005615532388</v>
+        <v>0.0799628021708879</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H25">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N25">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O25">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P25">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q25">
-        <v>434.1959324481617</v>
+        <v>474.179498424492</v>
       </c>
       <c r="R25">
-        <v>434.1959324481617</v>
+        <v>4267.615485820427</v>
       </c>
       <c r="S25">
-        <v>0.007121452216675038</v>
+        <v>0.006426281071196043</v>
       </c>
       <c r="T25">
-        <v>0.007121452216675038</v>
+        <v>0.006426281071196043</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H26">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N26">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O26">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P26">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q26">
-        <v>92.82008138741699</v>
+        <v>252.2909404991244</v>
       </c>
       <c r="R26">
-        <v>92.82008138741699</v>
+        <v>2270.61846449212</v>
       </c>
       <c r="S26">
-        <v>0.001522385920617292</v>
+        <v>0.00341915350779752</v>
       </c>
       <c r="T26">
-        <v>0.001522385920617292</v>
+        <v>0.003419153507797521</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H27">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N27">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O27">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P27">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q27">
-        <v>332.6409844833171</v>
+        <v>358.0004942226836</v>
       </c>
       <c r="R27">
-        <v>332.6409844833171</v>
+        <v>3222.004448004152</v>
       </c>
       <c r="S27">
-        <v>0.005455801630726943</v>
+        <v>0.004851774079533317</v>
       </c>
       <c r="T27">
-        <v>0.005455801630726943</v>
+        <v>0.004851774079533317</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H28">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N28">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O28">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P28">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q28">
-        <v>1783.442642635583</v>
+        <v>2578.117973669498</v>
       </c>
       <c r="R28">
-        <v>1783.442642635583</v>
+        <v>23203.06176302549</v>
       </c>
       <c r="S28">
-        <v>0.02925108369647449</v>
+        <v>0.0349397449458495</v>
       </c>
       <c r="T28">
-        <v>0.02925108369647449</v>
+        <v>0.0349397449458495</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H29">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N29">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O29">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P29">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q29">
-        <v>2292.43729361807</v>
+        <v>2446.665153078899</v>
       </c>
       <c r="R29">
-        <v>2292.43729361807</v>
+        <v>22019.98637771009</v>
       </c>
       <c r="S29">
-        <v>0.03759934496432442</v>
+        <v>0.03315824073589637</v>
       </c>
       <c r="T29">
-        <v>0.03759934496432442</v>
+        <v>0.03315824073589638</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H30">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N30">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O30">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P30">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q30">
-        <v>3336.237802836919</v>
+        <v>3742.053479973251</v>
       </c>
       <c r="R30">
-        <v>3336.237802836919</v>
+        <v>33678.48131975926</v>
       </c>
       <c r="S30">
-        <v>0.05471920928048903</v>
+        <v>0.0507138911016936</v>
       </c>
       <c r="T30">
-        <v>0.05471920928048903</v>
+        <v>0.05071389110169361</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H31">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N31">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O31">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P31">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q31">
-        <v>266.5041293409123</v>
+        <v>300.7334259542791</v>
       </c>
       <c r="R31">
-        <v>266.5041293409123</v>
+        <v>2706.600833588512</v>
       </c>
       <c r="S31">
-        <v>0.004371059885215483</v>
+        <v>0.004075666554769166</v>
       </c>
       <c r="T31">
-        <v>0.004371059885215483</v>
+        <v>0.004075666554769167</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H32">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N32">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O32">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P32">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q32">
-        <v>34.39747254134532</v>
+        <v>98.63629763708501</v>
       </c>
       <c r="R32">
-        <v>34.39747254134532</v>
+        <v>887.7266787337651</v>
       </c>
       <c r="S32">
-        <v>0.0005641691659716962</v>
+        <v>0.001336760814299512</v>
       </c>
       <c r="T32">
-        <v>0.0005641691659716962</v>
+        <v>0.001336760814299513</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H33">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N33">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O33">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P33">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q33">
-        <v>123.2708370738629</v>
+        <v>139.964769375041</v>
       </c>
       <c r="R33">
-        <v>123.2708370738629</v>
+        <v>1259.682924375369</v>
       </c>
       <c r="S33">
-        <v>0.002021823122527423</v>
+        <v>0.001896861739188781</v>
       </c>
       <c r="T33">
-        <v>0.002021823122527423</v>
+        <v>0.001896861739188781</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H34">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N34">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O34">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P34">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q34">
-        <v>660.9121475887658</v>
+        <v>1007.947456580454</v>
       </c>
       <c r="R34">
-        <v>660.9121475887658</v>
+        <v>9071.527109224086</v>
       </c>
       <c r="S34">
-        <v>0.01083993176061224</v>
+        <v>0.01366013014587263</v>
       </c>
       <c r="T34">
-        <v>0.01083993176061224</v>
+        <v>0.01366013014587263</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H35">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N35">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O35">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P35">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q35">
-        <v>849.5365192674057</v>
+        <v>956.5543327871179</v>
       </c>
       <c r="R35">
-        <v>849.5365192674057</v>
+        <v>8608.988995084061</v>
       </c>
       <c r="S35">
-        <v>0.01393364901916846</v>
+        <v>0.01296362880045366</v>
       </c>
       <c r="T35">
-        <v>0.01393364901916846</v>
+        <v>0.01296362880045366</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H36">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N36">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O36">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P36">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q36">
-        <v>1236.350437309982</v>
+        <v>1463.002595710773</v>
       </c>
       <c r="R36">
-        <v>1236.350437309982</v>
+        <v>13167.02336139696</v>
       </c>
       <c r="S36">
-        <v>0.02027796647638909</v>
+        <v>0.01982722981310828</v>
       </c>
       <c r="T36">
-        <v>0.02027796647638909</v>
+        <v>0.01982722981310828</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H37">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N37">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O37">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P37">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q37">
-        <v>98.76169395819868</v>
+        <v>117.575493012796</v>
       </c>
       <c r="R37">
-        <v>98.76169395819868</v>
+        <v>1058.179437115164</v>
       </c>
       <c r="S37">
-        <v>0.001619837109932312</v>
+        <v>0.001593432798539666</v>
       </c>
       <c r="T37">
-        <v>0.001619837109932312</v>
+        <v>0.001593432798539666</v>
       </c>
     </row>
   </sheetData>
